--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.3623249406511</v>
+        <v>823.6756274695341</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.3881720353709</v>
+        <v>1126.989331507893</v>
       </c>
       <c r="AC2" t="n">
-        <v>752.9462131604513</v>
+        <v>1019.43105144824</v>
       </c>
       <c r="AD2" t="n">
-        <v>608362.3249406511</v>
+        <v>823675.6274695341</v>
       </c>
       <c r="AE2" t="n">
-        <v>832388.1720353708</v>
+        <v>1126989.331507893</v>
       </c>
       <c r="AF2" t="n">
         <v>3.683311913949968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>752946.2131604513</v>
+        <v>1019431.05144824</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.5729200482349</v>
+        <v>636.6979720769436</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.1761882531823</v>
+        <v>871.1582545277715</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.033057304133</v>
+        <v>788.0161333939295</v>
       </c>
       <c r="AD3" t="n">
-        <v>460572.9200482349</v>
+        <v>636697.9720769436</v>
       </c>
       <c r="AE3" t="n">
-        <v>630176.1882531823</v>
+        <v>871158.2545277715</v>
       </c>
       <c r="AF3" t="n">
         <v>4.630869427958564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.88020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>570033.057304133</v>
+        <v>788016.1333939296</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.6806885239923</v>
+        <v>578.1955436230808</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.9621212775542</v>
+        <v>791.1126509722071</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.8976661942468</v>
+        <v>715.6099698969979</v>
       </c>
       <c r="AD4" t="n">
-        <v>421680.6885239923</v>
+        <v>578195.5436230807</v>
       </c>
       <c r="AE4" t="n">
-        <v>576962.1212775542</v>
+        <v>791112.6509722071</v>
       </c>
       <c r="AF4" t="n">
         <v>5.026056720882771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>521897.6661942467</v>
+        <v>715609.9698969979</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.1093954052136</v>
+        <v>549.8698946527344</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.5520587248125</v>
+        <v>752.3562484115419</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.912704348292</v>
+        <v>680.5524240017699</v>
       </c>
       <c r="AD5" t="n">
-        <v>403109.3954052136</v>
+        <v>549869.8946527344</v>
       </c>
       <c r="AE5" t="n">
-        <v>551552.0587248125</v>
+        <v>752356.2484115418</v>
       </c>
       <c r="AF5" t="n">
         <v>5.17606757525037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>498912.704348292</v>
+        <v>680552.4240017699</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.2070795386034</v>
+        <v>543.7550890266153</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.793808595454</v>
+        <v>743.9897015877006</v>
       </c>
       <c r="AC6" t="n">
-        <v>479.2310310733836</v>
+        <v>672.984368664274</v>
       </c>
       <c r="AD6" t="n">
-        <v>387207.0795386034</v>
+        <v>543755.0890266154</v>
       </c>
       <c r="AE6" t="n">
-        <v>529793.8085954541</v>
+        <v>743989.7015877005</v>
       </c>
       <c r="AF6" t="n">
         <v>5.275632834959197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>479231.0310733836</v>
+        <v>672984.368664274</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.2291622481902</v>
+        <v>705.0922762925399</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.1687347957068</v>
+        <v>964.7383588992991</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.1049116854097</v>
+        <v>872.6650839447399</v>
       </c>
       <c r="AD2" t="n">
-        <v>521229.1622481901</v>
+        <v>705092.2762925399</v>
       </c>
       <c r="AE2" t="n">
-        <v>713168.7347957068</v>
+        <v>964738.3588992991</v>
       </c>
       <c r="AF2" t="n">
         <v>4.497844121446872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.17708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>645104.9116854096</v>
+        <v>872665.0839447399</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.1602180629774</v>
+        <v>576.6612227772537</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.9357935792799</v>
+        <v>789.0133255014881</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.11455292893</v>
+        <v>713.7110011027828</v>
       </c>
       <c r="AD3" t="n">
-        <v>412160.2180629774</v>
+        <v>576661.2227772537</v>
       </c>
       <c r="AE3" t="n">
-        <v>563935.7935792799</v>
+        <v>789013.3255014881</v>
       </c>
       <c r="AF3" t="n">
         <v>5.414163219277005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>510114.55292893</v>
+        <v>713711.0011027828</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.1820519824892</v>
+        <v>521.3902892341109</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.7088795032906</v>
+        <v>713.3891958462644</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.5857864419453</v>
+        <v>645.3043322427211</v>
       </c>
       <c r="AD4" t="n">
-        <v>376182.0519824892</v>
+        <v>521390.2892341109</v>
       </c>
       <c r="AE4" t="n">
-        <v>514708.8795032906</v>
+        <v>713389.1958462645</v>
       </c>
       <c r="AF4" t="n">
         <v>5.802518970779103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>465585.7864419453</v>
+        <v>645304.3322427211</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.4106088253327</v>
+        <v>517.5173608504692</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.5486245913399</v>
+        <v>708.0900843702245</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.9180190163279</v>
+        <v>640.5109605286046</v>
       </c>
       <c r="AD5" t="n">
-        <v>372410.6088253327</v>
+        <v>517517.3608504693</v>
       </c>
       <c r="AE5" t="n">
-        <v>509548.62459134</v>
+        <v>708090.0843702245</v>
       </c>
       <c r="AF5" t="n">
         <v>5.89009520409457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>460918.0190163279</v>
+        <v>640510.9605286047</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.2829171711801</v>
+        <v>493.9022941692429</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.0630759639512</v>
+        <v>675.7789083137568</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.1054771351305</v>
+        <v>611.2835177659457</v>
       </c>
       <c r="AD2" t="n">
-        <v>344282.9171711801</v>
+        <v>493902.2941692428</v>
       </c>
       <c r="AE2" t="n">
-        <v>471063.0759639512</v>
+        <v>675778.9083137568</v>
       </c>
       <c r="AF2" t="n">
         <v>7.998636025619001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>426105.4771351304</v>
+        <v>611283.5177659458</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.0657982812392</v>
+        <v>493.685175279302</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.7660043201249</v>
+        <v>675.4818366699303</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.8367575920482</v>
+        <v>611.0147982228635</v>
       </c>
       <c r="AD3" t="n">
-        <v>344065.7982812392</v>
+        <v>493685.1752793021</v>
       </c>
       <c r="AE3" t="n">
-        <v>470766.0043201249</v>
+        <v>675481.8366699304</v>
       </c>
       <c r="AF3" t="n">
         <v>8.035270437667567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>425836.7575920482</v>
+        <v>611014.7982228636</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.37807827096</v>
+        <v>562.446119809835</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.1831942414055</v>
+        <v>769.5635944953833</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.7699209664592</v>
+        <v>696.1175251260316</v>
       </c>
       <c r="AD2" t="n">
-        <v>401378.07827096</v>
+        <v>562446.119809835</v>
       </c>
       <c r="AE2" t="n">
-        <v>549183.1942414056</v>
+        <v>769563.5944953833</v>
       </c>
       <c r="AF2" t="n">
         <v>6.413307970831765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.36979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>496769.9209664592</v>
+        <v>696117.5251260316</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.787020672887</v>
+        <v>496.9240873735851</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.4352537833274</v>
+        <v>679.9134590880453</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.1059944749036</v>
+        <v>615.0234728172147</v>
       </c>
       <c r="AD3" t="n">
-        <v>354787.020672887</v>
+        <v>496924.087373585</v>
       </c>
       <c r="AE3" t="n">
-        <v>485435.2537833274</v>
+        <v>679913.4590880453</v>
       </c>
       <c r="AF3" t="n">
         <v>7.043909533887971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>439105.9944749036</v>
+        <v>615023.4728172147</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.1814704562843</v>
+        <v>493.1671960963384</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.2925162100041</v>
+        <v>674.7731147001707</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.2175813296303</v>
+        <v>610.3737156832002</v>
       </c>
       <c r="AD2" t="n">
-        <v>345181.4704562843</v>
+        <v>493167.1960963384</v>
       </c>
       <c r="AE2" t="n">
-        <v>472292.5162100041</v>
+        <v>674773.1147001707</v>
       </c>
       <c r="AF2" t="n">
         <v>8.936155642922575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>427217.5813296303</v>
+        <v>610373.7156832002</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.2227135484901</v>
+        <v>736.2998022985403</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.8930378548947</v>
+        <v>1007.437872759588</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.0878075754412</v>
+        <v>911.2894161313467</v>
       </c>
       <c r="AD2" t="n">
-        <v>542222.7135484901</v>
+        <v>736299.8022985402</v>
       </c>
       <c r="AE2" t="n">
-        <v>741893.0378548948</v>
+        <v>1007437.872759588</v>
       </c>
       <c r="AF2" t="n">
         <v>4.272001071221292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>671087.8075754412</v>
+        <v>911289.4161313467</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.3011837447801</v>
+        <v>583.576723118304</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.0205749142716</v>
+        <v>798.4754181584559</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.0915937294953</v>
+        <v>722.2700449166998</v>
       </c>
       <c r="AD3" t="n">
-        <v>428301.1837447801</v>
+        <v>583576.723118304</v>
       </c>
       <c r="AE3" t="n">
-        <v>586020.5749142716</v>
+        <v>798475.4181584559</v>
       </c>
       <c r="AF3" t="n">
         <v>5.218953586330675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>530091.5937294953</v>
+        <v>722270.0449166999</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.9335674205374</v>
+        <v>538.5001780952344</v>
       </c>
       <c r="AB4" t="n">
-        <v>537.6290419503315</v>
+        <v>736.7997006210767</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.3184807536906</v>
+        <v>666.4805712986749</v>
       </c>
       <c r="AD4" t="n">
-        <v>392933.5674205374</v>
+        <v>538500.1780952344</v>
       </c>
       <c r="AE4" t="n">
-        <v>537629.0419503315</v>
+        <v>736799.7006210766</v>
       </c>
       <c r="AF4" t="n">
         <v>5.565622509123352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>486318.4807536906</v>
+        <v>666480.5712986749</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.2126549333526</v>
+        <v>522.7451001892689</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.1189959276552</v>
+        <v>715.2429079651525</v>
       </c>
       <c r="AC5" t="n">
-        <v>466.8613233338793</v>
+        <v>646.9811286786837</v>
       </c>
       <c r="AD5" t="n">
-        <v>377212.6549333526</v>
+        <v>522745.1001892689</v>
       </c>
       <c r="AE5" t="n">
-        <v>516118.9959276551</v>
+        <v>715242.9079651525</v>
       </c>
       <c r="AF5" t="n">
         <v>5.689887905431624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>466861.3233338794</v>
+        <v>646981.1286786838</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.9665293053985</v>
+        <v>496.8973378889692</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.8396448292595</v>
+        <v>679.8768592630898</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.1398611824167</v>
+        <v>614.9903660281848</v>
       </c>
       <c r="AD2" t="n">
-        <v>349966.5293053985</v>
+        <v>496897.3378889692</v>
       </c>
       <c r="AE2" t="n">
-        <v>478839.6448292595</v>
+        <v>679876.8592630898</v>
       </c>
       <c r="AF2" t="n">
         <v>9.537974429348956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>433139.8611824167</v>
+        <v>614990.3660281848</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.6761193815201</v>
+        <v>632.1666222597097</v>
       </c>
       <c r="AB2" t="n">
-        <v>628.9491460169299</v>
+        <v>864.9582617987871</v>
       </c>
       <c r="AC2" t="n">
-        <v>568.9231222567439</v>
+        <v>782.4078592692551</v>
       </c>
       <c r="AD2" t="n">
-        <v>459676.1193815201</v>
+        <v>632166.6222597098</v>
       </c>
       <c r="AE2" t="n">
-        <v>628949.14601693</v>
+        <v>864958.2617987872</v>
       </c>
       <c r="AF2" t="n">
         <v>5.3213887438493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>568923.122256744</v>
+        <v>782407.8592692552</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.049286664598</v>
+        <v>523.3960563645252</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.3177594368411</v>
+        <v>716.1335749222978</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.9955030976268</v>
+        <v>647.7867916314981</v>
       </c>
       <c r="AD3" t="n">
-        <v>370049.286664598</v>
+        <v>523396.0563645252</v>
       </c>
       <c r="AE3" t="n">
-        <v>506317.7594368411</v>
+        <v>716133.5749222978</v>
       </c>
       <c r="AF3" t="n">
         <v>6.229416579226792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>457995.5030976268</v>
+        <v>647786.7916314981</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.9498918640382</v>
+        <v>508.6750633914488</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.3405425012942</v>
+        <v>695.9916628921603</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.684181953823</v>
+        <v>629.5671954161656</v>
       </c>
       <c r="AD4" t="n">
-        <v>364949.8918640382</v>
+        <v>508675.0633914488</v>
       </c>
       <c r="AE4" t="n">
-        <v>499340.5425012942</v>
+        <v>695991.6628921604</v>
       </c>
       <c r="AF4" t="n">
         <v>6.362361663866283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>451684.181953823</v>
+        <v>629567.1954161656</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.5586019567658</v>
+        <v>683.8278349654495</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.88636228422</v>
+        <v>935.6434121546318</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.5217691118601</v>
+        <v>846.3469180823696</v>
       </c>
       <c r="AD2" t="n">
-        <v>500558.6019567658</v>
+        <v>683827.8349654495</v>
       </c>
       <c r="AE2" t="n">
-        <v>684886.3622842201</v>
+        <v>935643.4121546318</v>
       </c>
       <c r="AF2" t="n">
         <v>4.742705906453223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.16145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>619521.7691118601</v>
+        <v>846346.9180823696</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.6294546429642</v>
+        <v>558.9454163513581</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.6318708341835</v>
+        <v>764.7737775833581</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.7940221089793</v>
+        <v>691.7848416175401</v>
       </c>
       <c r="AD3" t="n">
-        <v>404629.4546429642</v>
+        <v>558945.4163513581</v>
       </c>
       <c r="AE3" t="n">
-        <v>553631.8708341835</v>
+        <v>764773.7775833581</v>
       </c>
       <c r="AF3" t="n">
         <v>5.659976499349672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>500794.0221089793</v>
+        <v>691784.8416175401</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.4473172433323</v>
+        <v>516.1121885182963</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.2306065514217</v>
+        <v>706.1674655935172</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.7257907682895</v>
+        <v>638.771833789534</v>
       </c>
       <c r="AD4" t="n">
-        <v>371447.3172433323</v>
+        <v>516112.1885182963</v>
       </c>
       <c r="AE4" t="n">
-        <v>508230.6065514217</v>
+        <v>706167.4655935173</v>
       </c>
       <c r="AF4" t="n">
         <v>5.993394071708577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.40104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>459725.7907682895</v>
+        <v>638771.8337895339</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.8596887681874</v>
+        <v>516.5245600431514</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.7948314642761</v>
+        <v>706.7316905063718</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.2361668473558</v>
+        <v>639.2822098686003</v>
       </c>
       <c r="AD5" t="n">
-        <v>371859.6887681874</v>
+        <v>516524.5600431514</v>
       </c>
       <c r="AE5" t="n">
-        <v>508794.8314642761</v>
+        <v>706731.6905063718</v>
       </c>
       <c r="AF5" t="n">
         <v>5.977217295461363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>460236.1668473558</v>
+        <v>639282.2098686002</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.7363480512614</v>
+        <v>790.6543973369712</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.4303122676561</v>
+        <v>1081.808227646663</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.942928079338</v>
+        <v>978.5619687274484</v>
       </c>
       <c r="AD2" t="n">
-        <v>585736.3480512614</v>
+        <v>790654.3973369712</v>
       </c>
       <c r="AE2" t="n">
-        <v>801430.3122676561</v>
+        <v>1081808.227646663</v>
       </c>
       <c r="AF2" t="n">
         <v>3.866329075705314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.43229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>724942.928079338</v>
+        <v>978561.9687274484</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.8112144624677</v>
+        <v>618.6779238410927</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.5562802484521</v>
+        <v>846.5024295430597</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.4266984142398</v>
+        <v>765.713425741091</v>
       </c>
       <c r="AD3" t="n">
-        <v>452811.2144624677</v>
+        <v>618677.9238410927</v>
       </c>
       <c r="AE3" t="n">
-        <v>619556.2802484521</v>
+        <v>846502.4295430598</v>
       </c>
       <c r="AF3" t="n">
         <v>4.816590645245439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.25520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>560426.6984142398</v>
+        <v>765713.425741091</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.8201487770191</v>
+        <v>561.9913429865773</v>
       </c>
       <c r="AB4" t="n">
-        <v>555.2610310781154</v>
+        <v>768.9413487824646</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.267697585771</v>
+        <v>695.5546656706267</v>
       </c>
       <c r="AD4" t="n">
-        <v>405820.1487770191</v>
+        <v>561991.3429865773</v>
       </c>
       <c r="AE4" t="n">
-        <v>555261.0310781153</v>
+        <v>768941.3487824646</v>
       </c>
       <c r="AF4" t="n">
         <v>5.192474349487904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>502267.697585771</v>
+        <v>695554.6656706267</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.6763851895845</v>
+        <v>541.813413980362</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.6994450576578</v>
+        <v>741.3330161287594</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.336550652177</v>
+        <v>670.5812335368528</v>
       </c>
       <c r="AD5" t="n">
-        <v>385676.3851895845</v>
+        <v>541813.413980362</v>
       </c>
       <c r="AE5" t="n">
-        <v>527699.4450576579</v>
+        <v>741333.0161287594</v>
       </c>
       <c r="AF5" t="n">
         <v>5.366972006261783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>477336.550652177</v>
+        <v>670581.2335368528</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.8066787356144</v>
+        <v>540.9437075263918</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.509474318595</v>
+        <v>740.1430453896965</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.2601490503159</v>
+        <v>669.5048319349917</v>
       </c>
       <c r="AD6" t="n">
-        <v>384806.6787356143</v>
+        <v>540943.7075263918</v>
       </c>
       <c r="AE6" t="n">
-        <v>526509.474318595</v>
+        <v>740143.0453896965</v>
       </c>
       <c r="AF6" t="n">
         <v>5.385000149221849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>476260.1490503159</v>
+        <v>669504.8319349916</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.9589959161248</v>
+        <v>582.6931245061427</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.974669612639</v>
+        <v>797.2664395556772</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.0044555303339</v>
+        <v>721.1764495349582</v>
       </c>
       <c r="AD2" t="n">
-        <v>420958.9959161248</v>
+        <v>582693.1245061427</v>
       </c>
       <c r="AE2" t="n">
-        <v>575974.669612639</v>
+        <v>797266.4395556771</v>
       </c>
       <c r="AF2" t="n">
         <v>5.993393462646267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>521004.4555303339</v>
+        <v>721176.4495349582</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.0817100903015</v>
+        <v>500.7763547019073</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.9431931956726</v>
+        <v>685.1843011966956</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.1837024766672</v>
+        <v>619.7912731526887</v>
       </c>
       <c r="AD3" t="n">
-        <v>358081.7100903015</v>
+        <v>500776.3547019073</v>
       </c>
       <c r="AE3" t="n">
-        <v>489943.1931956726</v>
+        <v>685184.3011966957</v>
       </c>
       <c r="AF3" t="n">
         <v>6.809848060667729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>443183.7024766672</v>
+        <v>619791.2731526888</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.558562698855</v>
+        <v>501.2532073104608</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.5956439719479</v>
+        <v>685.836751972971</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.7738842665754</v>
+        <v>620.3814549425969</v>
       </c>
       <c r="AD4" t="n">
-        <v>358558.5626988551</v>
+        <v>501253.2073104608</v>
       </c>
       <c r="AE4" t="n">
-        <v>490595.643971948</v>
+        <v>685836.751972971</v>
       </c>
       <c r="AF4" t="n">
         <v>6.808160537071667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>443773.8842665753</v>
+        <v>620381.4549425968</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.4513649522023</v>
+        <v>512.8321334317704</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.9219477532923</v>
+        <v>701.6795495183152</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.5918530905425</v>
+        <v>634.7122381257194</v>
       </c>
       <c r="AD2" t="n">
-        <v>362451.3649522023</v>
+        <v>512832.1334317705</v>
       </c>
       <c r="AE2" t="n">
-        <v>495921.9477532923</v>
+        <v>701679.5495183152</v>
       </c>
       <c r="AF2" t="n">
         <v>7.422561833594047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>448591.8530905425</v>
+        <v>634712.2381257194</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.6705502452721</v>
+        <v>488.6845507749743</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.6981849877474</v>
+        <v>668.639761611126</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.2982178591118</v>
+        <v>604.8257212047588</v>
       </c>
       <c r="AD3" t="n">
-        <v>347670.5502452721</v>
+        <v>488684.5507749743</v>
       </c>
       <c r="AE3" t="n">
-        <v>475698.1849877473</v>
+        <v>668639.761611126</v>
       </c>
       <c r="AF3" t="n">
         <v>7.666515036204592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>430298.2178591118</v>
+        <v>604825.7212047587</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.2902705324005</v>
+        <v>488.8124619894807</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.9143577416124</v>
+        <v>668.8147753778582</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.3028821957659</v>
+        <v>604.9840319032274</v>
       </c>
       <c r="AD2" t="n">
-        <v>349290.2705324005</v>
+        <v>488812.4619894807</v>
       </c>
       <c r="AE2" t="n">
-        <v>477914.3577416124</v>
+        <v>668814.7753778582</v>
       </c>
       <c r="AF2" t="n">
         <v>8.438997027426763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>432302.8821957659</v>
+        <v>604984.0319032274</v>
       </c>
     </row>
   </sheetData>
@@ -14045,28 +14045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.1395577615254</v>
+        <v>519.0392352222523</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.2318076328186</v>
+        <v>710.1723800260569</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.6812631850754</v>
+        <v>642.3945248095647</v>
       </c>
       <c r="AD2" t="n">
-        <v>364139.5577615254</v>
+        <v>519039.2352222523</v>
       </c>
       <c r="AE2" t="n">
-        <v>498231.8076328186</v>
+        <v>710172.3800260569</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017120150220538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.17708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>450681.2631850754</v>
+        <v>642394.5248095647</v>
       </c>
     </row>
   </sheetData>
@@ -14342,28 +14342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.4848295850704</v>
+        <v>652.5853432372755</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.0522972160451</v>
+        <v>892.8960566506861</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.4395867449271</v>
+        <v>807.6793101914302</v>
       </c>
       <c r="AD2" t="n">
-        <v>479484.8295850704</v>
+        <v>652585.3432372755</v>
       </c>
       <c r="AE2" t="n">
-        <v>656052.2972160451</v>
+        <v>892896.0566506861</v>
       </c>
       <c r="AF2" t="n">
         <v>5.028543114405581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>593439.5867449271</v>
+        <v>807679.3101914302</v>
       </c>
     </row>
     <row r="3">
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.8793846752968</v>
+        <v>540.6706971055058</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.3454420266009</v>
+        <v>739.7695004874705</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.8254559805754</v>
+        <v>669.1669376339605</v>
       </c>
       <c r="AD3" t="n">
-        <v>386879.3846752968</v>
+        <v>540670.6971055059</v>
       </c>
       <c r="AE3" t="n">
-        <v>529345.4420266009</v>
+        <v>739769.5004874705</v>
       </c>
       <c r="AF3" t="n">
         <v>5.94845457793996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>478825.4559805754</v>
+        <v>669166.9376339605</v>
       </c>
     </row>
     <row r="4">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.3964061322363</v>
+        <v>512.6014487890089</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.0562153725211</v>
+        <v>701.3639166130006</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.9497976247084</v>
+        <v>634.4267287818946</v>
       </c>
       <c r="AD4" t="n">
-        <v>368396.4061322363</v>
+        <v>512601.448789009</v>
       </c>
       <c r="AE4" t="n">
-        <v>504056.2153725211</v>
+        <v>701363.9166130006</v>
       </c>
       <c r="AF4" t="n">
         <v>6.163295453104933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.40104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>455949.7976247084</v>
+        <v>634426.7287818945</v>
       </c>
     </row>
   </sheetData>
@@ -14851,28 +14851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.9328555319549</v>
+        <v>768.2601095388472</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.5978119005387</v>
+        <v>1051.167375115019</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.9575996770811</v>
+        <v>950.8454361567181</v>
       </c>
       <c r="AD2" t="n">
-        <v>563932.8555319549</v>
+        <v>768260.1095388472</v>
       </c>
       <c r="AE2" t="n">
-        <v>771597.8119005386</v>
+        <v>1051167.375115019</v>
       </c>
       <c r="AF2" t="n">
         <v>4.059740144014388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.33854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>697957.5996770811</v>
+        <v>950845.4361567181</v>
       </c>
     </row>
     <row r="3">
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.4772991278867</v>
+        <v>600.9607231894246</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.839252569305</v>
+        <v>822.2609739837193</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.9731905697331</v>
+        <v>743.7855406772376</v>
       </c>
       <c r="AD3" t="n">
-        <v>435477.2991278867</v>
+        <v>600960.7231894246</v>
       </c>
       <c r="AE3" t="n">
-        <v>595839.252569305</v>
+        <v>822260.9739837192</v>
       </c>
       <c r="AF3" t="n">
         <v>5.013093933429295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>538973.1905697332</v>
+        <v>743785.5406772376</v>
       </c>
     </row>
     <row r="4">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.5669838938365</v>
+        <v>555.2125939359292</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.7051750147801</v>
+        <v>759.6663652740662</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.5284004169011</v>
+        <v>687.1648735707486</v>
       </c>
       <c r="AD4" t="n">
-        <v>399566.9838938365</v>
+        <v>555212.5939359292</v>
       </c>
       <c r="AE4" t="n">
-        <v>546705.1750147801</v>
+        <v>759666.3652740661</v>
       </c>
       <c r="AF4" t="n">
         <v>5.373745911153205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>494528.4004169011</v>
+        <v>687164.8735707486</v>
       </c>
     </row>
     <row r="5">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.3170687788688</v>
+        <v>527.3620006732676</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.7348360250497</v>
+        <v>721.5599548906338</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.9411955342596</v>
+        <v>652.6952855116282</v>
       </c>
       <c r="AD5" t="n">
-        <v>381317.0687788688</v>
+        <v>527362.0006732676</v>
       </c>
       <c r="AE5" t="n">
-        <v>521734.8360250497</v>
+        <v>721559.9548906338</v>
       </c>
       <c r="AF5" t="n">
         <v>5.515113940084914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>471941.1955342596</v>
+        <v>652695.2855116281</v>
       </c>
     </row>
     <row r="6">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.5613730505662</v>
+        <v>527.606304944965</v>
       </c>
       <c r="AB6" t="n">
-        <v>522.06910390753</v>
+        <v>721.8942227731139</v>
       </c>
       <c r="AC6" t="n">
-        <v>472.2435613591838</v>
+        <v>652.9976513365524</v>
       </c>
       <c r="AD6" t="n">
-        <v>381561.3730505662</v>
+        <v>527606.3049449651</v>
       </c>
       <c r="AE6" t="n">
-        <v>522069.10390753</v>
+        <v>721894.222773114</v>
       </c>
       <c r="AF6" t="n">
         <v>5.51536548462038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>472243.5613591839</v>
+        <v>652997.6513365523</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.7445252268309</v>
+        <v>558.274077605056</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.1609213796312</v>
+        <v>763.8552222932926</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.658545725176</v>
+        <v>690.9539519551579</v>
       </c>
       <c r="AD2" t="n">
-        <v>386744.525226831</v>
+        <v>558274.077605056</v>
       </c>
       <c r="AE2" t="n">
-        <v>529160.9213796312</v>
+        <v>763855.2222932926</v>
       </c>
       <c r="AF2" t="n">
         <v>1.07744103439125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>478658.545725176</v>
+        <v>690953.9519551579</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.9220985135724</v>
+        <v>532.9103390553197</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.5626644000993</v>
+        <v>729.1514362403716</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.6900171310589</v>
+        <v>659.5622465360578</v>
       </c>
       <c r="AD2" t="n">
-        <v>381922.0985135724</v>
+        <v>532910.3390553197</v>
       </c>
       <c r="AE2" t="n">
-        <v>522562.6644000993</v>
+        <v>729151.4362403715</v>
       </c>
       <c r="AF2" t="n">
         <v>6.881043282110035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>472690.0171310589</v>
+        <v>659562.2465360578</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.5383054324915</v>
+        <v>493.1849233402094</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.9902182682171</v>
+        <v>674.797369897306</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.0851869107089</v>
+        <v>610.3956559983632</v>
       </c>
       <c r="AD3" t="n">
-        <v>351538.3054324915</v>
+        <v>493184.9233402094</v>
       </c>
       <c r="AE3" t="n">
-        <v>480990.2182682171</v>
+        <v>674797.369897306</v>
       </c>
       <c r="AF3" t="n">
         <v>7.327846991817224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>435085.1869107089</v>
+        <v>610395.6559983632</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.2051787438693</v>
+        <v>602.5719740712422</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.3081460392202</v>
+        <v>824.4655585235939</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.8247019260285</v>
+        <v>745.7797227627802</v>
       </c>
       <c r="AD2" t="n">
-        <v>440205.1787438693</v>
+        <v>602571.9740712421</v>
       </c>
       <c r="AE2" t="n">
-        <v>602308.1460392203</v>
+        <v>824465.5585235939</v>
       </c>
       <c r="AF2" t="n">
         <v>5.63990116616299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.19270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>544824.7019260285</v>
+        <v>745779.7227627803</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.779342841015</v>
+        <v>506.1035620778478</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.3707015701293</v>
+        <v>692.4732213482603</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.9977784729303</v>
+        <v>626.3845489950518</v>
       </c>
       <c r="AD3" t="n">
-        <v>362779.342841015</v>
+        <v>506103.5620778478</v>
       </c>
       <c r="AE3" t="n">
-        <v>496370.7015701293</v>
+        <v>692473.2213482603</v>
       </c>
       <c r="AF3" t="n">
         <v>6.539065218247409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>448997.7784729303</v>
+        <v>626384.5489950518</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.6913288152119</v>
+        <v>504.9140628255595</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.8820327802342</v>
+        <v>690.8456959942758</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.6511861429831</v>
+        <v>624.9123523766056</v>
       </c>
       <c r="AD4" t="n">
-        <v>361691.3288152119</v>
+        <v>504914.0628255595</v>
       </c>
       <c r="AE4" t="n">
-        <v>494882.0327802342</v>
+        <v>690845.6959942759</v>
       </c>
       <c r="AF4" t="n">
         <v>6.569948292929824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>447651.1861429831</v>
+        <v>624912.3523766055</v>
       </c>
     </row>
   </sheetData>
